--- a/Intro_Excel_EtebomNtuk.xlsx
+++ b/Intro_Excel_EtebomNtuk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Etebom\Documents\M4ACE\Introduction_to_Excel\excel_assignment_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE116FD-11E9-4DC2-8D4D-3AA07A46FDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A443C124-DEE5-4E7A-8536-89AAB6AA87C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A2AB31B0-7DCA-432B-B293-18B64011FC4C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{A2AB31B0-7DCA-432B-B293-18B64011FC4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="83">
   <si>
     <t>Julia</t>
   </si>
@@ -277,6 +277,9 @@
   <si>
     <t>Hello</t>
   </si>
+  <si>
+    <t>Number Of Employees:</t>
+  </si>
 </sst>
 </file>
 
@@ -323,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -335,6 +338,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +432,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3161,6 +3167,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
         <c:axId val="569255648"/>
         <c:axId val="569250400"/>
       </c:barChart>
@@ -3469,7 +3476,3165 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Summary Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hourly Wage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$2:$B$71</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="70"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Julia</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>James</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Amelia</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Freddy</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Jeff</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Jefferson</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Clifford</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Janay</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Tanisha</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Tre</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Ariana</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Marisela</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Adrienne</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Keegan</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Nestor</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Mari</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Jerod</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Graciela</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Kenan</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Andrea</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Kolton</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Dangelo</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Louis</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Kerry</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Anne</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Dangelo</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Keisha</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Dymond</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Ingrid</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Jaime</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Lilly</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Rogelio</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Joshua</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Lindsay</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Audra</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Aubrie</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Pranav</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Jordyn</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Macie</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Glen</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Zayne</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Samuel</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Ester</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Leandra</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Emma</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Efrain</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Phillip</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Judah</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Keaton</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Kavon</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Allan</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>Jacinda</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>Caden</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>Tanya</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>Rosalinda</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>Raekwon</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>Jude</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>Dante</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>Jayden</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>Tianna</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>Dean Ling</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>Danae</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>Alvaro</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>Jayce</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>Tanner</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>Derek</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>Ellie</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>Alek</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>Riya</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>Cortney</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>37</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>49</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>51</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>53</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>54</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>55</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>56</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>57</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>58</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>59</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>60</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>61</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>62</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>63</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>65</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>66</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>67</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>68</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>69</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>70</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9A4-4BDD-9DC2-330BBFEFC800}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hours Worked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$2:$B$71</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="70"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Julia</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>James</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Amelia</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Freddy</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Jeff</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Jefferson</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Clifford</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Janay</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Tanisha</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Tre</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Ariana</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Marisela</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Adrienne</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Keegan</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Nestor</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Mari</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Jerod</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Graciela</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Kenan</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Andrea</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Kolton</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Dangelo</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Louis</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Kerry</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Anne</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Dangelo</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Keisha</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Dymond</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Ingrid</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Jaime</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Lilly</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Rogelio</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Joshua</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Lindsay</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Audra</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Aubrie</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Pranav</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Jordyn</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Macie</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Glen</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Zayne</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Samuel</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Ester</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Leandra</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Emma</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Efrain</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Phillip</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Judah</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Keaton</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Kavon</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Allan</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>Jacinda</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>Caden</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>Tanya</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>Rosalinda</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>Raekwon</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>Jude</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>Dante</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>Jayden</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>Tianna</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>Dean Ling</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>Danae</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>Alvaro</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>Jayce</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>Tanner</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>Derek</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>Ellie</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>Alek</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>Riya</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>Cortney</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>37</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>49</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>51</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>53</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>54</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>55</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>56</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>57</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>58</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>59</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>60</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>61</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>62</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>63</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>65</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>66</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>67</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>68</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>69</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>70</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B9A4-4BDD-9DC2-330BBFEFC800}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Taxable Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$2:$B$71</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="70"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Julia</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>James</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Amelia</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Freddy</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Jeff</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Jefferson</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Clifford</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Janay</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Tanisha</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Tre</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Ariana</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Marisela</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Adrienne</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Keegan</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Nestor</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Mari</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Jerod</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Graciela</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Kenan</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Andrea</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Kolton</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Dangelo</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Louis</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Kerry</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Anne</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Dangelo</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Keisha</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Dymond</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Ingrid</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Jaime</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Lilly</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Rogelio</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Joshua</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Lindsay</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Audra</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Aubrie</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Pranav</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Jordyn</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Macie</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Glen</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Zayne</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Samuel</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Ester</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Leandra</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Emma</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Efrain</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Phillip</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Judah</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Keaton</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Kavon</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Allan</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>Jacinda</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>Caden</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>Tanya</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>Rosalinda</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>Raekwon</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>Jude</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>Dante</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>Jayden</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>Tianna</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>Dean Ling</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>Danae</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>Alvaro</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>Jayce</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>Tanner</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>Derek</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>Ellie</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>Alek</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>Riya</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>Cortney</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>37</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>49</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>51</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>53</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>54</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>55</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>56</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>57</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>58</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>59</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>60</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>61</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>62</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>63</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>65</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>66</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>67</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>68</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>69</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>70</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$71</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>2251.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2268.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2213.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1069.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>913.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1813.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2356</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1515.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2109</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2244</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3192</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2277</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2134</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6368</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1813.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1348.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1527.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2888</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3162</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1824</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2232</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1100.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1162</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2061.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3819</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3154</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2106</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1748</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1999.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1147</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1332</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2244</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2346</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3084.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1813.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B9A4-4BDD-9DC2-330BBFEFC800}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Taxes to Be Paid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$2:$B$71</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="70"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Julia</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>James</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Amelia</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Freddy</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Jeff</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Jefferson</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Clifford</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Janay</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Tanisha</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Tre</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Ariana</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Marisela</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Adrienne</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Keegan</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Nestor</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Mari</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Jerod</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Graciela</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Kenan</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Andrea</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Kolton</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Dangelo</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Louis</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Kerry</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Anne</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Dangelo</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Keisha</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Dymond</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Ingrid</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Jaime</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Lilly</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Rogelio</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Joshua</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Lindsay</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Audra</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Aubrie</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Pranav</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Jordyn</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Macie</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Glen</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Zayne</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Samuel</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Ester</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Leandra</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Emma</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Efrain</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Phillip</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Judah</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Keaton</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Kavon</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Allan</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>Jacinda</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>Caden</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>Tanya</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>Rosalinda</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>Raekwon</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>Jude</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>Dante</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>Jayden</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>Tianna</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>Dean Ling</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>Danae</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>Alvaro</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>Jayce</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>Tanner</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>Derek</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>Ellie</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>Alek</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>Riya</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>Cortney</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>37</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>49</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>51</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>53</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>54</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>55</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>56</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>57</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>58</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>59</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>60</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>61</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>62</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>63</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>65</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>66</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>67</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>68</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>69</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>70</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>157.60500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>173.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>158.81250000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>156.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>207.06000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>154.96250000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.865000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.962500000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>126.94500000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>134.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>164.92000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>106.10250000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147.63000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>157.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>223.44000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>209.44000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>159.39000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>262.08000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>149.38000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>445.76000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>123.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>152.88000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>126.94500000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>94.39500000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>106.92500000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>155.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>202.16000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>221.34000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>127.68</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>112.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>156.24</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>77.035000000000011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81.34</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>141.12</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>127.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>121.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>144.30500000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>75.67</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>62.160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>267.33000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>133.28</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>220.78000000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>179.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>147.42000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>122.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>139.965</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>80.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>93.240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>143.22000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>138.18</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>157.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>93.100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>164.22000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>95.76</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>145.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>262.08000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>74.690000000000012</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>215.91500000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>123.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>131.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>126.94500000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>58.52</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B9A4-4BDD-9DC2-330BBFEFC800}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="371001887"/>
+        <c:axId val="373465055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="371001887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Employees</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373465055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="373465055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Taxable</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Income, Taxes Owed, etc</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="371001887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4014,6 +7179,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4035,6 +7703,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943191F9-4014-520F-1039-D881B32ED8F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>563755</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>48115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>322704</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>41640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D070C134-38EA-D23D-705A-805373DDC363}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4357,8 +8066,8 @@
   </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6037,13 +9746,1688 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40E55B9-BDCC-4944-9E24-7871443A17E7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="40" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14.25</v>
+      </c>
+      <c r="D2">
+        <v>158</v>
+      </c>
+      <c r="E2" s="4">
+        <f>C2*D2</f>
+        <v>2251.5</v>
+      </c>
+      <c r="F2" s="4">
+        <f>E2*$H$1</f>
+        <v>157.60500000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D3">
+        <v>160</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E66" si="0">C3*D3</f>
+        <v>2480</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F66" si="1">E3*$H$1</f>
+        <v>173.60000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>125</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>13.75</v>
+      </c>
+      <c r="D5">
+        <v>165</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>2268.75</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>158.81250000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D6">
+        <v>144</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>2232</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>156.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>174</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>2958</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>207.06000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2">
+        <v>13.75</v>
+      </c>
+      <c r="D8">
+        <v>161</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>2213.75</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>154.96250000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D9">
+        <v>69</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>1069.5</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>74.865000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10.75</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>913.75</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>63.962500000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D11">
+        <v>117</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>1813.5</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>126.94500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>160</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>1920</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>134.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D13">
+        <v>152</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>2356</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>164.92000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>11.75</v>
+      </c>
+      <c r="D14">
+        <v>129</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>1515.75</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>106.10250000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>74</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>888</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>62.160000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>111</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>2109</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>147.63000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>132</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>2244</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>157.08000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>168</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>3192</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>223.44000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>187</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>2992</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
+        <v>209.44000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>70</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="1"/>
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="D21">
+        <v>138</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="1"/>
+        <v>159.39000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>72</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>936</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="1"/>
+        <v>65.52000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>130</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>1560</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="1"/>
+        <v>109.20000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>208</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>3744</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="1"/>
+        <v>262.08000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>97</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>2134</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="1"/>
+        <v>149.38000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>199</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>6368</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="1"/>
+        <v>445.76000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>160</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>1760</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="1"/>
+        <v>123.20000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>156</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>2184</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="1"/>
+        <v>152.88000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D29">
+        <v>117</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>1813.5</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="1"/>
+        <v>126.94500000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>76</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="1"/>
+        <v>79.800000000000011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>175</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D32">
+        <v>87</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
+        <v>1348.5</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="1"/>
+        <v>94.39500000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="2">
+        <v>11.75</v>
+      </c>
+      <c r="D33">
+        <v>130</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>1527.5</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="1"/>
+        <v>106.92500000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="2">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>185</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>2220</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="1"/>
+        <v>155.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>152</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="0"/>
+        <v>2888</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="1"/>
+        <v>202.16000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="2">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>186</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="0"/>
+        <v>3162</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="1"/>
+        <v>221.34000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="2">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>96</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="0"/>
+        <v>1824</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="1"/>
+        <v>127.68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="2">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="1"/>
+        <v>112.00000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>124</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="0"/>
+        <v>2232</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="1"/>
+        <v>156.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D40">
+        <v>71</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="0"/>
+        <v>1100.5</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="1"/>
+        <v>77.035000000000011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="2">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>83</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="0"/>
+        <v>1162</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="1"/>
+        <v>81.34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="2">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>168</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="1"/>
+        <v>141.12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="2">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>165</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="0"/>
+        <v>1815</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" si="1"/>
+        <v>127.05000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="2">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>145</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="0"/>
+        <v>1740</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="1"/>
+        <v>121.80000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D45">
+        <v>133</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="0"/>
+        <v>2061.5</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="1"/>
+        <v>144.30500000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="2">
+        <v>11.75</v>
+      </c>
+      <c r="D46">
+        <v>92</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="0"/>
+        <v>1081</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="1"/>
+        <v>75.67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="2">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>74</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="0"/>
+        <v>888</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="1"/>
+        <v>62.160000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="2">
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <v>201</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="0"/>
+        <v>3819</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="1"/>
+        <v>267.33000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="2">
+        <v>17</v>
+      </c>
+      <c r="D49">
+        <v>112</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="0"/>
+        <v>1904</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" si="1"/>
+        <v>133.28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="2">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>166</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="0"/>
+        <v>3154</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="1"/>
+        <v>220.78000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="2">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <v>160</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" si="1"/>
+        <v>179.20000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="2">
+        <v>18</v>
+      </c>
+      <c r="D52">
+        <v>117</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="0"/>
+        <v>2106</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" si="1"/>
+        <v>147.42000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="D53">
+        <v>152</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="0"/>
+        <v>1748</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="1"/>
+        <v>122.36000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D54">
+        <v>129</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="0"/>
+        <v>1999.5</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" si="1"/>
+        <v>139.965</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D55">
+        <v>74</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="0"/>
+        <v>1147</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" si="1"/>
+        <v>80.290000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="2">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>111</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="0"/>
+        <v>1332</v>
+      </c>
+      <c r="F56" s="4">
+        <f t="shared" si="1"/>
+        <v>93.240000000000009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D57">
+        <v>132</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="F57" s="4">
+        <f t="shared" si="1"/>
+        <v>143.22000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="2">
+        <v>11.75</v>
+      </c>
+      <c r="D58">
+        <v>168</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="0"/>
+        <v>1974</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" si="1"/>
+        <v>138.18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="2">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>187</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="0"/>
+        <v>2244</v>
+      </c>
+      <c r="F59" s="4">
+        <f t="shared" si="1"/>
+        <v>157.08000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="2">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>70</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="F60" s="4">
+        <f t="shared" si="1"/>
+        <v>93.100000000000009</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="2">
+        <v>17</v>
+      </c>
+      <c r="D61">
+        <v>138</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" si="0"/>
+        <v>2346</v>
+      </c>
+      <c r="F61" s="4">
+        <f t="shared" si="1"/>
+        <v>164.22000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="2">
+        <v>19</v>
+      </c>
+      <c r="D62">
+        <v>72</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" si="0"/>
+        <v>1368</v>
+      </c>
+      <c r="F62" s="4">
+        <f t="shared" si="1"/>
+        <v>95.76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="2">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>130</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="0"/>
+        <v>2080</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" si="1"/>
+        <v>145.60000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="2">
+        <v>18</v>
+      </c>
+      <c r="D64">
+        <v>208</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="0"/>
+        <v>3744</v>
+      </c>
+      <c r="F64" s="4">
+        <f t="shared" si="1"/>
+        <v>262.08000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="2">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>97</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="0"/>
+        <v>1067</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" si="1"/>
+        <v>74.690000000000012</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D66">
+        <v>199</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="0"/>
+        <v>3084.5</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" si="1"/>
+        <v>215.91500000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="2">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>160</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" ref="E67:E75" si="2">C67*D67</f>
+        <v>1760</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" ref="F67:F71" si="3">E67*$H$1</f>
+        <v>123.20000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="2">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>156</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="2"/>
+        <v>1872</v>
+      </c>
+      <c r="F68" s="4">
+        <f t="shared" si="3"/>
+        <v>131.04000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D69">
+        <v>117</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="2"/>
+        <v>1813.5</v>
+      </c>
+      <c r="F69" s="4">
+        <f t="shared" si="3"/>
+        <v>126.94500000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="2">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>76</v>
+      </c>
+      <c r="E70" s="4">
+        <f t="shared" si="2"/>
+        <v>836</v>
+      </c>
+      <c r="F70" s="4">
+        <f t="shared" si="3"/>
+        <v>58.52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="2">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>175</v>
+      </c>
+      <c r="E71" s="4">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" si="3"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72">
+        <f>SUM(D2:D71)</f>
+        <v>9367</v>
+      </c>
+      <c r="E72" s="4">
+        <f>SUM(E2:E71)</f>
+        <v>142794.5</v>
+      </c>
+      <c r="F72" s="4">
+        <f>SUM(F2:F71)</f>
+        <v>9995.6150000000034</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73">
+        <f>AVERAGE(D2:D71)</f>
+        <v>133.81428571428572</v>
+      </c>
+      <c r="E73" s="4">
+        <f>AVERAGE(E2:E71)</f>
+        <v>2039.9214285714286</v>
+      </c>
+      <c r="F73" s="4">
+        <f>AVERAGE(F2:F71)</f>
+        <v>142.79450000000006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74">
+        <f>MAX(D2:D71)</f>
+        <v>208</v>
+      </c>
+      <c r="E74" s="4">
+        <f>MAX(E2:E71)</f>
+        <v>6368</v>
+      </c>
+      <c r="F74" s="4">
+        <f>MAX(F2:F71)</f>
+        <v>445.76000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75">
+        <f>MIN(D2:D71)</f>
+        <v>69</v>
+      </c>
+      <c r="E75" s="4">
+        <f>MIN(E2:E71)</f>
+        <v>836</v>
+      </c>
+      <c r="F75" s="4">
+        <f>MIN(F2:F71)</f>
+        <v>58.52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76">
+        <f>COUNT(D2:D71)</f>
+        <v>70</v>
+      </c>
+      <c r="E76">
+        <f>COUNT(E2:E71)</f>
+        <v>70</v>
+      </c>
+      <c r="F76">
+        <f>COUNT(F2:F71)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E78" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E72" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
